--- a/Nhom1De3TestCase.xlsx
+++ b/Nhom1De3TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\NUCE\Python\N01_LTUDKT_65PM12_BTNhomSo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\LTUDKT\BTL-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B651729-6E7E-40A3-8C22-9E186C04C139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AD17F-8734-452B-B9DD-C43A4FCC8A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99319825-448D-44B9-9AA7-1B36B1F7C184}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99319825-448D-44B9-9AA7-1B36B1F7C184}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,8 +507,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +550,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,26 +662,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,43 +680,107 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Đầu ra" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,7 +793,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1017,683 +1089,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D4144C-5888-4C1A-AA15-FD950D65CB6D}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.44140625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="F2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f t="shared" ref="A4:A32" si="0">A3+1</f>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="F7" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="F8" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="F9" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="F10" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="F11" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="F12" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="F14" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="F16" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="F17" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="F19" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="F20" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <f>A20+1</f>
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="F21" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <f>A21+1</f>
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="F22" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="F24" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="F25" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="F26" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="F29" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="F30" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="F31" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>